--- a/DEVASC_Study_Tracker.xlsx
+++ b/DEVASC_Study_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hoshiyar.digari/Downloads/devNetstudytracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557FA8EC-39CD-B84B-801B-A053840B7A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A09139-E200-EF45-BA69-46D34A62E997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1080" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="24">
   <si>
     <t>Week</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>In Progress</t>
+  </si>
+  <si>
+    <t>Linux bash</t>
+  </si>
+  <si>
+    <t>software verison control</t>
   </si>
 </sst>
 </file>
@@ -442,7 +448,7 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -524,8 +530,11 @@
       <c r="F3">
         <v>0.5</v>
       </c>
+      <c r="G3">
+        <v>0.7</v>
+      </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -535,6 +544,18 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -542,6 +563,15 @@
       </c>
       <c r="D5" t="s">
         <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">

--- a/DEVASC_Study_Tracker.xlsx
+++ b/DEVASC_Study_Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hoshiyar.digari/Downloads/devNetstudytracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A09139-E200-EF45-BA69-46D34A62E997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D48BA1C-624C-4B48-A587-5797DAB8D9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1080" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1000" windowWidth="34200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DEVASC Study Tracker" sheetId="1" r:id="rId1"/>
@@ -448,7 +448,7 @@
   <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -570,6 +570,9 @@
       <c r="F5">
         <v>1</v>
       </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
       <c r="H5" t="s">
         <v>21</v>
       </c>

--- a/DEVASC_Study_Tracker.xlsx
+++ b/DEVASC_Study_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hoshiyar.digari/Downloads/devNetstudytracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D48BA1C-624C-4B48-A587-5797DAB8D9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C9E5CC-36F3-9742-8A84-C7DAA0C866DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1000" windowWidth="34200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="25">
   <si>
     <t>Week</t>
   </si>
@@ -98,13 +98,16 @@
     <t>common design patterns</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>Linux bash</t>
   </si>
   <si>
-    <t>software verison control</t>
+    <t>Conducting code review</t>
+  </si>
+  <si>
+    <t>git</t>
+  </si>
+  <si>
+    <t>revise do I know</t>
   </si>
 </sst>
 </file>
@@ -445,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -545,7 +548,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4">
         <v>0.5</v>
@@ -571,10 +574,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -584,6 +587,18 @@
       <c r="D6" t="s">
         <v>9</v>
       </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6">
+        <v>0.2</v>
+      </c>
+      <c r="G6">
+        <v>0.3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -592,13 +607,25 @@
       <c r="D7" t="s">
         <v>9</v>
       </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>0.2</v>
+      </c>
+      <c r="G7">
+        <v>0.3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -651,10 +678,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -707,10 +734,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -763,10 +790,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -819,10 +846,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -875,10 +902,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -931,10 +958,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -985,17 +1012,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>8</v>
-      </c>
-      <c r="D57" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="H2 H3 H4 H5 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16 H17 H18 H19 H20 H21 H22 H23 H24 H25 H26 H27 H28 H29 H30 H31 H32 H33 H34 H35 H36 H37 H38 H39 H40 H41 H42 H43 H44 H45 H46 H47 H48 H49 H50 H51 H52 H53 H54 H55 H56 H57" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="H2 H3 H4 H5 H6 H7 H8 H9 H10 H11 H12 H13 H14 H15 H16 H17 H18 H19 H20 H21 H22 H23 H24 H25 H26 H27 H28 H29 H30 H31 H32 H33 H34 H35 H36 H37 H38 H39 H40 H41 H42 H43 H44 H45 H46 H47 H48 H49 H50 H51 H52 H53 H54 H55 H56" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Not Started,In Progress,Completed"</formula1>
     </dataValidation>
   </dataValidations>

--- a/DEVASC_Study_Tracker.xlsx
+++ b/DEVASC_Study_Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hoshiyar.digari/Downloads/devNetstudytracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C9E5CC-36F3-9742-8A84-C7DAA0C866DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9DE688-AFA5-5544-BC59-953A997CF9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1000" windowWidth="34200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="28">
   <si>
     <t>Week</t>
   </si>
@@ -98,6 +98,9 @@
     <t>common design patterns</t>
   </si>
   <si>
+    <t>In Progress</t>
+  </si>
+  <si>
     <t>Linux bash</t>
   </si>
   <si>
@@ -108,6 +111,12 @@
   </si>
   <si>
     <t>revise do I know</t>
+  </si>
+  <si>
+    <t>Introduction to Python</t>
+  </si>
+  <si>
+    <t>read through and make notes for whole chapter</t>
   </si>
 </sst>
 </file>
@@ -451,7 +460,7 @@
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -548,7 +557,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>0.5</v>
@@ -568,7 +577,7 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -588,7 +597,7 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F6">
         <v>0.2</v>
@@ -608,7 +617,7 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7">
         <v>0.2</v>
@@ -625,7 +634,16 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">

--- a/DEVASC_Study_Tracker.xlsx
+++ b/DEVASC_Study_Tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hoshiyar.digari/Downloads/devNetstudytracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9DE688-AFA5-5544-BC59-953A997CF9FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6697E409-41B0-DA42-8D02-852705DCC285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1000" windowWidth="34200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="29">
   <si>
     <t>Week</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>read through and make notes for whole chapter</t>
+  </si>
+  <si>
+    <t>Pyhton Functions , classes and modules</t>
   </si>
 </sst>
 </file>
@@ -460,7 +463,7 @@
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -642,8 +645,11 @@
       <c r="F8">
         <v>1</v>
       </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -651,7 +657,13 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>1.5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
